--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Week#3" sheetId="9" r:id="rId4"/>
     <sheet name="Week#4" sheetId="6" r:id="rId5"/>
     <sheet name="Week#5" sheetId="8" r:id="rId6"/>
-    <sheet name="Instruction" sheetId="1" r:id="rId7"/>
-    <sheet name="TeamMember" sheetId="7" r:id="rId8"/>
+    <sheet name="Week#7" sheetId="10" r:id="rId7"/>
+    <sheet name="Instruction" sheetId="1" r:id="rId8"/>
+    <sheet name="TeamMember" sheetId="7" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week#1'!$A$1:$H$17</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -497,6 +498,22 @@
   </si>
   <si>
     <t>ขาดความเข้าใจในการเขียนเอกสาร Proprosal แก้ปัญหาโดยการศึกษาแนวทางการเขียน Proposal จากหัวข้อที่อาจารย์แนะนำ และประชุมปรึกษากับสมาชิกภายในกลุ่ม</t>
+  </si>
+  <si>
+    <t>System Software Design</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- ทวนสอบโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำในการจัดทำเอกสาร 
+- จัดทำ System Context Diagram, Use Case Diagram และ Activity Diagram สำหรับการจัดการสินค้าคงคลัง
+'- ทวนสอบเอกสาร</t>
+  </si>
+  <si>
+    <t>-ศึกษาวิธีการเขียนแผนภาพต่างๆจากบทเรียนและแหล่งความรู้ทางอินเทอร์เน็ต
+- พูดคุย ปรึกษากับสมาชิกในกลุ่ม ทำความเข้าใจในเรื่องรายละเอียดความต้องการ และขั้นตอนวิธีการทำงานของระบบ</t>
+  </si>
+  <si>
+    <t>ขาดความเข้าใจในการเขียนแผนภาพ ทำให้งานล่าช้า ปรับปรุงโดย ปรึกษากับเพื่อน ให้เพื่อนอธิบาย และทำความเข้าใจเองจากแหล่งความรู้อื่นๆ</t>
   </si>
 </sst>
 </file>
@@ -748,8 +765,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -760,21 +790,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,42 +1233,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -1373,13 +1390,13 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="25">
         <f>SUM(F10:F14)</f>
         <v>20</v>
@@ -1550,42 +1567,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -1750,13 +1767,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1882,42 +1899,42 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
@@ -2134,13 +2151,13 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -2293,42 +2310,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2466,13 +2483,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>27</v>
@@ -2636,42 +2653,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2809,13 +2826,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>22</v>
@@ -2878,7 +2895,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2941,42 +2958,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
@@ -3114,13 +3131,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>43</v>
@@ -3158,6 +3175,251 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <f>D10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="22">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" ref="F11:F14" si="0">D11+E11</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="32">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="22">
+        <f>SUM(F10:F14)</f>
+        <v>12</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
@@ -3262,7 +3524,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="34">
         <v>5870918821</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3291,7 +3553,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="35">
         <v>5870976121</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3320,7 +3582,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="35">
         <v>5870947021</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3349,7 +3611,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
@@ -3368,7 +3630,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="13" t="s">

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -514,6 +514,24 @@
   </si>
   <si>
     <t>ขาดความเข้าใจในการเขียนแผนภาพ ทำให้งานล่าช้า ปรับปรุงโดย ปรึกษากับเพื่อน ให้เพื่อนอธิบาย และทำความเข้าใจเองจากแหล่งความรู้อื่นๆ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้                 - ทำ Activity Diagram ระบบตรวจสอบสิทธิ์ผู้ใช้ระบบ และ ระบบจัดการสินค้าคงคลัง                                                     - สรุปรายละเอียดความต้องการของระบบเบื้องต้น ของระบบตรวจสอบสิทธิ์ผู้ใช้ระบบ ,ระบบจัดการสมาชิก ,ระบบจัดการสินค้าคงคลัง</t>
+  </si>
+  <si>
+    <t>- ค้นคว้าเพิ่มเติมเกี่ยวกับการเขียน Activity Diagram จากบทเรียน และทางอินเทอร์เน็ต                                - ทวนสอบเนื้อหาและรายละเอียดต่างๆ</t>
+  </si>
+  <si>
+    <t>- ปัญหาในการใช้เครื่องมือในการติดต่อและส่งงานยังไม่มีประสิทธิภาพมากพอ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้                - ทำ Activity Diagram ระบบจัดการชั้นเรียน และ ประเมินยอดขายเป้าหมาย                                                              - สรุปรายละเอียดความต้องการของระบบเบื้องต้น ของระบบจัดการชั้นเรียน , ระบบออกรายงาน ,ระบบประเมินยอดขายเป้าหมาย</t>
+  </si>
+  <si>
+    <t>- ศึกษาวิธีการเขียน Activity Diagram แบบ swimlane จากบทเรียนและอินเตอร์เน็ต</t>
+  </si>
+  <si>
+    <t>- ขาดประสบการณ์ในการเขียน Activity Diagram ทำให้ต้องแก้ไขเยอะ</t>
   </si>
 </sst>
 </file>
@@ -3180,8 +3198,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3341,39 +3359,59 @@
       <c r="G12" s="30"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="44" t="s">
@@ -3385,7 +3423,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -27,12 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -532,6 +537,18 @@
   </si>
   <si>
     <t>- ขาดประสบการณ์ในการเขียน Activity Diagram ทำให้ต้องแก้ไขเยอะ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- ปรับแก้ไขโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำของอาจารย์และเพื่อนในการจัดทำเอกสาร 
+- จัดทำ Usecase Description สำหรับจัดการชั้นเรียน
+'- ทวนสอบเอกสาร</t>
+  </si>
+  <si>
+    <t>แก้ไขเอกสาร Proposal จากที่ได้คำแนะนำจากอาจารย์และเพื่อน หากมีข้อมูลส่วนไหนไม่เข้าใจ ทางทีมจะใช้วิธี Hangout ในการประชุมหารือเพื่อหาทางแก้ไข</t>
+  </si>
+  <si>
+    <t>การเขียน Usecase descrition ยังไม่เข้าใจในเนื้อหาทำจัดทำ ทำให้งานที่ได้รับมอบหมายยังไม่มีประสิทธิภาพ จึงต้องมีการปรึกษาข้อมูลกับเพื่อนหลายรอบ</t>
   </si>
 </sst>
 </file>
@@ -894,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,18 +1164,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1187,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1184,7 +1201,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1215,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1229,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1243,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1257,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1250,7 +1267,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1288,7 +1305,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1338,7 +1355,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1361,7 +1378,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1384,7 +1401,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1407,7 +1424,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="38" t="s">
         <v>73</v>
       </c>
@@ -1422,7 +1439,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1432,7 +1449,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1481,18 +1498,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1521,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1535,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1549,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1546,7 +1563,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1577,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1591,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1584,7 +1601,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1622,7 +1639,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1649,7 +1666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1757,7 +1774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="38" t="s">
         <v>73</v>
       </c>
@@ -1799,7 +1816,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1809,7 +1826,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1858,25 +1875,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -1940,7 +1957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1954,7 +1971,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1998,7 +2015,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2042,7 +2059,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2088,7 +2105,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2115,7 +2132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2142,7 +2159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="38" t="s">
         <v>73</v>
       </c>
@@ -2222,20 +2239,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2247,7 +2264,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +2278,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2292,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2306,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +2320,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2334,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2327,7 +2344,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -2351,7 +2368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -2365,7 +2382,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2419,7 +2436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2446,7 +2463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2473,7 +2490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2500,7 +2517,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
@@ -2515,7 +2532,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2567,18 +2584,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2590,7 +2607,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2621,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2635,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2632,7 +2649,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2663,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2660,7 +2677,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2670,7 +2687,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -2694,7 +2711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -2708,7 +2725,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2762,7 +2779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2789,7 +2806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
@@ -2858,7 +2875,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2868,7 +2885,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2917,25 +2934,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2943,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2967,7 +2984,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2975,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -2999,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3013,7 +3030,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3067,7 +3084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3094,7 +3111,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3148,7 +3165,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
@@ -3198,29 +3215,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3298,7 +3315,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3315,7 +3332,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3342,24 +3359,34 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="22">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2</v>
+      </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3386,7 +3413,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3413,7 +3440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
@@ -3423,7 +3450,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -3464,24 +3491,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3500,16 +3527,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3558,7 +3585,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3587,7 +3614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3616,7 +3643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3645,7 +3672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3664,7 +3691,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="6"/>
   </bookViews>
@@ -32,12 +27,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="157">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -549,6 +544,23 @@
   </si>
   <si>
     <t>การเขียน Usecase descrition ยังไม่เข้าใจในเนื้อหาทำจัดทำ ทำให้งานที่ได้รับมอบหมายยังไม่มีประสิทธิภาพ จึงต้องมีการปรึกษาข้อมูลกับเพื่อนหลายรอบ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบก่อน
+- แจกแจกงานและมอบหมายงาน
+- อธิบายวิธีการสร้างแผนภาพกิจกรรม
+- แสดงความคิดเห็นต่อเอกสารโครงร่างของกลุ่ม 5
+- ทวนสอบความถูกต้องของแผนภาพต่างๆ
+- ทวนสอบเอกสารโครงร่าง
+- รวมรวมเนื้อหาสำหรับเอกสารออกแบบและทวนสอบ</t>
+  </si>
+  <si>
+    <t>- ศึกษาวิธีการประเมินจากเอกสารแนะนำ
+- ปรึกษาทีมเพื่อหาวิธีการแก้ไขปํญหาจากรอบก่อน
+- แจกแจงรายละเอียดงานและทวนสอบความถูกต้องของเนื้องาน</t>
+  </si>
+  <si>
+    <t>ทีมขาดประสบการณ์ในการวาดแผนภาพ จำเป็นต้องศึกษาเพิ่มเติมระหว่างการวาดแผนภาพ โดยรวมเป็นไปตามแผนทีมสามารถพัฒนาได้ในเวลาอันจำกัด</t>
   </si>
 </sst>
 </file>
@@ -728,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -828,6 +840,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +884,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -911,7 +926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,7 +961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3215,8 +3230,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3315,22 +3330,32 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="22">
+        <v>11</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
       <c r="F10" s="22">
         <f>D10+E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
@@ -3450,7 +3475,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="Week#4" sheetId="6" r:id="rId5"/>
     <sheet name="Week#5" sheetId="8" r:id="rId6"/>
     <sheet name="Week#7" sheetId="10" r:id="rId7"/>
-    <sheet name="Instruction" sheetId="1" r:id="rId8"/>
-    <sheet name="TeamMember" sheetId="7" r:id="rId9"/>
+    <sheet name="Week#8" sheetId="11" r:id="rId8"/>
+    <sheet name="Instruction" sheetId="1" r:id="rId9"/>
+    <sheet name="TeamMember" sheetId="7" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week#1'!$A$1:$H$17</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -561,6 +562,20 @@
   </si>
   <si>
     <t>ทีมขาดประสบการณ์ในการวาดแผนภาพ จำเป็นต้องศึกษาเพิ่มเติมระหว่างการวาดแผนภาพ โดยรวมเป็นไปตามแผนทีมสามารถพัฒนาได้ในเวลาอันจำกัด</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Class Diagram Diagram
+- จัดทำ CRC Cards สำหรับระบบสมาชิก และระบบจัดการสินค้าคงคลัง
+- ทวนสอบความถูกต้องของการเขียน Class Diagram</t>
+  </si>
+  <si>
+    <t>- ทำงานร่วมกันกับสมาชิกภายในกลุ่ม ในการเขียน Class Diagram และศึกษาเพิ่มเติมจากบทเรียนและแหล่งความรู้ทางอินเทอร์เน็ต
+- เขียน CRC Card จากแผนภาพคลาส
+- ตรวจสอบความถูกต้องของงาน</t>
+  </si>
+  <si>
+    <t>ขาดความเข้าใจในการเขียนแผนภาพคลาส ในส่วนของความความสัมพันธ์ระหว่างคลาส ปรับปรุงโดย ปรึกษากับเพื่อน และทำความเข้าใจเองจากแหล่งความรู้อื่นๆ</t>
   </si>
 </sst>
 </file>
@@ -821,6 +836,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,9 +857,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1179,18 +1194,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1217,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1231,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1245,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1259,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1273,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1287,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1282,45 +1297,45 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1370,7 +1385,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1393,7 +1408,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1416,7 +1431,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1439,14 +1454,14 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="25">
         <f>SUM(F10:F14)</f>
         <v>20</v>
@@ -1454,7 +1469,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1464,7 +1479,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1502,6 +1517,202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34">
+        <v>5870918821</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>5870976121</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>5870947021</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1513,18 +1724,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1747,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1761,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1775,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1789,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1803,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1817,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1616,45 +1827,45 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1681,7 +1892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1708,7 +1919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1735,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1762,7 +1973,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1789,7 +2000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -1816,14 +2027,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1831,7 +2042,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1841,7 +2052,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1890,25 +2101,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +2127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1948,45 +2159,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2030,7 +2241,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2074,7 +2285,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2120,7 +2331,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2147,7 +2358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2174,7 +2385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2200,14 +2411,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -2254,20 +2465,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="15"/>
-    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="15"/>
+    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15"/>
+    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2279,7 +2490,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2293,7 +2504,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2518,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2532,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2335,7 +2546,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2560,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2359,45 +2570,45 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2424,7 +2635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2451,7 +2662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2478,7 +2689,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2505,7 +2716,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2532,14 +2743,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>27</v>
@@ -2547,7 +2758,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2599,18 +2810,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2833,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2847,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2861,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2875,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2678,7 +2889,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2692,7 +2903,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2702,45 +2913,45 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2767,7 +2978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2794,7 +3005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2821,7 +3032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2848,7 +3059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2875,14 +3086,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>22</v>
@@ -2890,7 +3101,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2900,7 +3111,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2949,25 +3160,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2991,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +3210,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3007,45 +3218,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3072,7 +3283,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3099,7 +3310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3126,7 +3337,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3153,7 +3364,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3180,14 +3391,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>43</v>
@@ -3230,29 +3441,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3276,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3292,52 +3503,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="22">
@@ -3357,7 +3568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3384,7 +3595,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="130.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3411,7 +3622,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3438,7 +3649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3465,14 +3676,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>45</v>
@@ -3510,230 +3721,279 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <f>D10+E10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="22">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" ref="F11:F14" si="0">D11+E11</f>
+        <v>11</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <f>D12+E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f>D13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="32">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f>D14+E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22">
+        <f>SUM(F10:F14)</f>
+        <v>11</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34">
-        <v>5870918821</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
-        <v>5870976121</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35">
-        <v>5870947021</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="7"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -28,12 +33,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="163">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -576,6 +581,20 @@
   </si>
   <si>
     <t>ขาดความเข้าใจในการเขียนแผนภาพคลาส ในส่วนของความความสัมพันธ์ระหว่างคลาส ปรับปรุงโดย ปรึกษากับเพื่อน และทำความเข้าใจเองจากแหล่งความรู้อื่นๆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ช่วยกันทำงานกับสมาชิกภายในกลุ่ม ในการเขียน Class Diagram เพื่อได้เป็นการเข้าใจในระบบงานมากขึ้น และได้เรียนรู้หลักการเขียน Class Diagram
+- การเขียน CRC Card จากแผนภาพคลาส เมื่อมีการเขียนในส่วนงานที่ตัวเองรับผิดชอบแล้วได้มีการส่งให้ช่วยกันทวนสอบความถูกต้องอยู่เป็นระยะ ๆ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำรายละเอียด Tool inteGREAT เกี่ยวกับงาน Software Requirement 
+- จัดทำ CRC Cards ระบบตรวจสอบสิทธิ์ผู้เข้าใช้ระบบ
+</t>
+  </si>
+  <si>
+    <t>ยังไม่เข้าใจในการเขียนแผนภาพและ CRC ยังขาดในเรื่องการของนำมาสร้างเป็นคลาส และการจัดประเภทของ CRC  จึงได้มีการประชุมเพื่อขอคำแนะนำจากเพื่อนอยู่ทุกครั้งที่มีการเขียนงานเรียบร้อยแล้ว เพื่อลดความเข้าใจผิดผลาดของงานได้เป็นอย่างดี</t>
   </si>
 </sst>
 </file>
@@ -941,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,18 +1213,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1236,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1250,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1264,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1278,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1292,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1306,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1297,7 +1316,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1335,7 +1354,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1362,7 +1381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1385,7 +1404,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1408,7 +1427,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1431,7 +1450,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1454,7 +1473,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
@@ -1469,7 +1488,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1479,7 +1498,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1525,16 +1544,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +1602,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1612,7 +1631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1641,7 +1660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1670,7 +1689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1689,7 +1708,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1724,18 +1743,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1766,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1761,7 +1780,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1794,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1808,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +1822,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1836,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1827,7 +1846,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1865,7 +1884,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1946,7 +1965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2000,7 +2019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2042,7 +2061,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2052,7 +2071,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2101,25 +2120,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2197,7 +2216,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2241,7 +2260,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2285,7 +2304,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2331,7 +2350,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2358,7 +2377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2385,7 +2404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2411,7 +2430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2465,20 +2484,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2509,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2504,7 +2523,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2518,7 +2537,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2551,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2565,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2560,7 +2579,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2570,7 +2589,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2608,7 +2627,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2635,7 +2654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2662,7 +2681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2689,7 +2708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2758,7 +2777,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2810,18 +2829,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2852,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2847,7 +2866,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2880,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +2894,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2889,7 +2908,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2903,7 +2922,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2913,7 +2932,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2951,7 +2970,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2978,7 +2997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3005,7 +3024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3032,7 +3051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3059,7 +3078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3101,7 +3120,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3111,7 +3130,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3160,25 +3179,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3202,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3242,7 +3261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3256,7 +3275,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3283,7 +3302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3310,7 +3329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3337,7 +3356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3364,7 +3383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3391,7 +3410,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3445,25 +3464,25 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3541,7 +3560,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3568,7 +3587,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3595,7 +3614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="130.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3622,7 +3641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3649,7 +3668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3676,7 +3695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3726,29 +3745,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3799,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3826,7 +3845,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3843,7 +3862,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3860,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="22">
-        <f t="shared" ref="F11:F14" si="0">D11+E11</f>
+        <f t="shared" ref="F11" si="0">D11+E11</f>
         <v>11</v>
       </c>
       <c r="G11" s="31" t="s">
@@ -3870,24 +3889,34 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="22">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
       <c r="F12" s="22">
         <f>D12+E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3904,7 +3933,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3921,7 +3950,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3931,7 +3960,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -3972,24 +4001,24 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -14,11 +19,12 @@
     <sheet name="Week#4" sheetId="6" r:id="rId5"/>
     <sheet name="Week#5" sheetId="8" r:id="rId6"/>
     <sheet name="Week#7" sheetId="10" r:id="rId7"/>
-    <sheet name="Instruction" sheetId="1" r:id="rId8"/>
-    <sheet name="TeamMember" sheetId="7" r:id="rId9"/>
+    <sheet name="Week#8" sheetId="11" r:id="rId8"/>
+    <sheet name="Instruction" sheetId="1" r:id="rId9"/>
+    <sheet name="TeamMember" sheetId="7" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week#1'!$A$1:$H$17</definedName>
@@ -27,12 +33,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="163">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -561,6 +567,34 @@
   </si>
   <si>
     <t>ทีมขาดประสบการณ์ในการวาดแผนภาพ จำเป็นต้องศึกษาเพิ่มเติมระหว่างการวาดแผนภาพ โดยรวมเป็นไปตามแผนทีมสามารถพัฒนาได้ในเวลาอันจำกัด</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Class Diagram Diagram
+- จัดทำ CRC Cards สำหรับระบบสมาชิก และระบบจัดการสินค้าคงคลัง
+- ทวนสอบความถูกต้องของการเขียน Class Diagram</t>
+  </si>
+  <si>
+    <t>- ทำงานร่วมกันกับสมาชิกภายในกลุ่ม ในการเขียน Class Diagram และศึกษาเพิ่มเติมจากบทเรียนและแหล่งความรู้ทางอินเทอร์เน็ต
+- เขียน CRC Card จากแผนภาพคลาส
+- ตรวจสอบความถูกต้องของงาน</t>
+  </si>
+  <si>
+    <t>ขาดความเข้าใจในการเขียนแผนภาพคลาส ในส่วนของความความสัมพันธ์ระหว่างคลาส ปรับปรุงโดย ปรึกษากับเพื่อน และทำความเข้าใจเองจากแหล่งความรู้อื่นๆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ช่วยกันทำงานกับสมาชิกภายในกลุ่ม ในการเขียน Class Diagram เพื่อได้เป็นการเข้าใจในระบบงานมากขึ้น และได้เรียนรู้หลักการเขียน Class Diagram
+- การเขียน CRC Card จากแผนภาพคลาส เมื่อมีการเขียนในส่วนงานที่ตัวเองรับผิดชอบแล้วได้มีการส่งให้ช่วยกันทวนสอบความถูกต้องอยู่เป็นระยะ ๆ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำรายละเอียด Tool inteGREAT เกี่ยวกับงาน Software Requirement 
+- จัดทำ CRC Cards ระบบตรวจสอบสิทธิ์ผู้เข้าใช้ระบบ
+</t>
+  </si>
+  <si>
+    <t>ยังไม่เข้าใจในการเขียนแผนภาพและ CRC ยังขาดในเรื่องการของนำมาสร้างเป็นคลาส และการจัดประเภทของ CRC  จึงได้มีการประชุมเพื่อขอคำแนะนำจากเพื่อนอยู่ทุกครั้งที่มีการเขียนงานเรียบร้อยแล้ว เพื่อลดความเข้าใจผิดผลาดของงานได้เป็นอย่างดี</t>
   </si>
 </sst>
 </file>
@@ -821,6 +855,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,9 +876,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +918,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,42 +1317,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1440,13 +1474,13 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="25">
         <f>SUM(F10:F14)</f>
         <v>20</v>
@@ -1502,6 +1536,202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34">
+        <v>5870918821</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>5870976121</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>5870947021</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1617,42 +1847,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1817,13 +2047,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1949,42 +2179,42 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
@@ -2201,13 +2431,13 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="25">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -2360,42 +2590,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -2533,13 +2763,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>27</v>
@@ -2703,42 +2933,42 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -2876,13 +3106,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>22</v>
@@ -3008,42 +3238,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
@@ -3181,13 +3411,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>43</v>
@@ -3230,7 +3460,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3293,42 +3523,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
@@ -3337,7 +3567,7 @@
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="22">
@@ -3466,13 +3696,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
         <v>45</v>
@@ -3510,10 +3740,265 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <f>D10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="22">
+        <v>8</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" ref="F11" si="0">D11+E11</f>
+        <v>11</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="22">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <f>D12+E12</f>
+        <v>9</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f>D13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A14" s="32">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f>D14+E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+      <c r="A15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22">
+        <f>SUM(F10:F14)</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3542,200 +4027,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34">
-        <v>5870918821</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35">
-        <v>5870976121</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35">
-        <v>5870947021</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="7"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -33,12 +28,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="164">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -595,6 +590,11 @@
   </si>
   <si>
     <t>ยังไม่เข้าใจในการเขียนแผนภาพและ CRC ยังขาดในเรื่องการของนำมาสร้างเป็นคลาส และการจัดประเภทของ CRC  จึงได้มีการประชุมเพื่อขอคำแนะนำจากเพื่อนอยู่ทุกครั้งที่มีการเขียนงานเรียบร้อยแล้ว เพื่อลดความเข้าใจผิดผลาดของงานได้เป็นอย่างดี</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- รวบรวมเอกสารจากสมาชิกภายในกลุ่ม
+- ทวบสอบความถูกต้องของ CRC Card</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -995,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,18 +1213,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1316,7 +1316,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1354,7 +1354,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1498,7 +1498,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1544,16 +1544,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1743,18 +1743,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1846,7 +1846,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1884,7 +1884,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2071,7 +2071,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2120,25 +2120,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2216,7 +2216,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2484,20 +2484,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="15"/>
-    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="15"/>
+    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15"/>
+    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2589,7 +2589,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2627,7 +2627,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2825,22 +2825,22 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2932,7 +2932,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2970,7 +2970,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3130,7 +3130,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3179,25 +3179,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3275,7 +3275,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3464,25 +3464,25 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3560,7 +3560,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="130.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3745,29 +3745,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3845,24 +3845,30 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="22">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
       <c r="F10" s="22">
         <f>D10+E10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="239.25" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3933,7 +3939,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3950,7 +3956,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3960,7 +3966,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -4001,24 +4007,24 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="170">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -595,6 +595,27 @@
     <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
 - รวบรวมเอกสารจากสมาชิกภายในกลุ่ม
 - ทวบสอบความถูกต้องของ CRC Card</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาการทำงานรอบที่ผ่านมา และแบ่งงานกันทำ
+- จัดทำรายละเอียด Tool Rally สำหรับงาน Software Requirement Tool
+- จัดทำ CRC Card ระบบออกรายงาน</t>
+  </si>
+  <si>
+    <t>- ประชุม ปรึกษาและแบ่งงานกันทำ
+- จัดทำ CRC Card ระบบจัดการห้องเรียน และ ระบบตั้งเป้าหมาย</t>
+  </si>
+  <si>
+    <t>- การทำงานแต่ล่ะส่วนมีการทวนสอบเป็นระยะ ทำให้ได้ความถูกต้องมากยิ่งขึ้น</t>
+  </si>
+  <si>
+    <t>- ยังไม่เข้าใจ CRC และ Class diagram  เท่าที่ควร</t>
+  </si>
+  <si>
+    <t>- จากการแบ่งงานกันไปทำ  และเมื่องานเสร็จได้มีการทวนสอบเป็นระยะจากเพื่อนๆทุกคนในกลุ่ม ทำให้เข้าใจภาพรวมมากยิ่งขึ้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ความเข้าใจในการทำ CRC และ Class Diagram ยังไม่ตรงกันจึงต้องมีการทวนสอบกันเป็นระยะ </t>
   </si>
 </sst>
 </file>
@@ -3460,8 +3481,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3745,8 +3766,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3845,7 +3866,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3922,39 +3943,59 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2</v>
+      </c>
       <c r="F13" s="22">
         <f>D13+E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="22">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
       <c r="F14" s="22">
         <f>D14+E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
@@ -3966,7 +4007,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="7"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -15,11 +20,12 @@
     <sheet name="Week#5" sheetId="8" r:id="rId6"/>
     <sheet name="Week#7" sheetId="10" r:id="rId7"/>
     <sheet name="Week#8" sheetId="11" r:id="rId8"/>
-    <sheet name="Instruction" sheetId="1" r:id="rId9"/>
-    <sheet name="TeamMember" sheetId="7" r:id="rId10"/>
+    <sheet name="Week#9" sheetId="12" r:id="rId9"/>
+    <sheet name="Instruction" sheetId="1" r:id="rId10"/>
+    <sheet name="TeamMember" sheetId="7" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week#1'!$A$1:$H$17</definedName>
@@ -28,12 +34,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="173">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -616,6 +622,20 @@
   </si>
   <si>
     <t xml:space="preserve">- ความเข้าใจในการทำ CRC และ Class Diagram ยังไม่ตรงกันจึงต้องมีการทวนสอบกันเป็นระยะ </t>
+  </si>
+  <si>
+    <t>System Software Design V0.4</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Sequence Diagram ระบบตรวจสอบสิทธิ์เข้าใช้งาน (เพิ่มข้อมูลพนักงานใหม่ และตรวจสอบสิทธิ์เข้าใช้งาน)
+- จัดทำ Behavioral State Machine ระบบตรวจสอบสิทธิ์เข้าใช้งาน 
+- รวบรวมเอกสารออกแบบระบบจากสมาชิกภายในกลุ่ม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+- 
+</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1016,7 +1036,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,6 +1579,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3481,7 +3537,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3635,7 +3691,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="130.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3766,8 +3822,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3866,7 +3922,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4042,36 +4098,243 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <f>D10+E10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22">
+        <f t="shared" ref="F11" si="0">D11+E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <f>D12+E12</f>
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="G12" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f>D13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="32">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f>D14+E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22">
+        <f>SUM(F10:F14)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="8"/>
+    <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -633,8 +633,7 @@
 - รวบรวมเอกสารออกแบบระบบจากสมาชิกภายในกลุ่ม</t>
   </si>
   <si>
-    <t xml:space="preserve">-
-- 
+    <t xml:space="preserve">- ก่อนการเขียน  State Machine ในระบบที่ตนเองระบผิดชอบนั้น จะมีประชุมและร่วมมือกันคิดว่ามีส่วนไหนที่ต้องเพิ่มเติมรายละเอียดบ้าง จะรวมมือกันทำและช่วยกันแก้ไข
 </t>
   </si>
 </sst>
@@ -4104,7 +4103,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4251,11 +4250,11 @@
         <v>5</v>
       </c>
       <c r="E12" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="22">
         <f>D12+E12</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>172</v>
@@ -4306,7 +4305,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" activeTab="8"/>
   </bookViews>
@@ -34,12 +29,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="175">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -635,6 +630,13 @@
   <si>
     <t xml:space="preserve">- ก่อนการเขียน  State Machine ในระบบที่ตนเองระบผิดชอบนั้น จะมีประชุมและร่วมมือกันคิดว่ามีส่วนไหนที่ต้องเพิ่มเติมรายละเอียดบ้าง จะรวมมือกันทำและช่วยกันแก้ไข
 </t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการเขียน State Diagram คร่าวๆ
+- จัดทำ State Machine และ Sequence Diagram ของระบบออกรายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ประชุม State Machine ของแต่ล่ะระบบเพื่อเป็นแนวทางในการทำงาน และช่วยกันแก้ไขเพื่อให้งานออกมาเรียบร้อย</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,7 +1037,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3821,7 +3823,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3921,7 +3923,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4102,7 +4104,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4236,7 +4238,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4261,21 +4263,29 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3</v>
+      </c>
       <c r="F13" s="22">
         <f>D13+E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>174</v>
+      </c>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -4305,7 +4315,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" activeTab="8"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="177">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ประชุม State Machine ของแต่ล่ะระบบเพื่อเป็นแนวทางในการทำงาน และช่วยกันแก้ไขเพื่อให้งานออกมาเรียบร้อย</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการพูดคุยแลกเปลี่ยนความคิดในการเขียน State Machine                     - ทำ State Machine และ Sequence Diagram ของระบบจัดการห้องเรียน</t>
+  </si>
+  <si>
+    <t>- หาข้อมูลเพิ่มเติมและศึกษาจากบทเรียนที่เรียนในห้องเพื่อทำการเขียน State Machine และ Sequence Diagram ของระบบ</t>
   </si>
 </sst>
 </file>
@@ -4104,8 +4110,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4238,7 +4244,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4288,21 +4294,29 @@
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="22">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
       <c r="F14" s="22">
         <f>D14+E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -4315,7 +4329,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="180">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>- หาข้อมูลเพิ่มเติมและศึกษาจากบทเรียนที่เรียนในห้องเพื่อทำการเขียน State Machine และ Sequence Diagram ของระบบ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Sequence Diagram สำหรับระบบจัดการสินค้าคงคลัง
+- แก้ไขปรับปรุง Class Diagram</t>
+  </si>
+  <si>
+    <t>- ปรึกษากับเพื่อนในกลุ่ม ในการเขียน State Machine 
+- ศึกษาวิธีการเขียน Sequence Diagram จากเอกสารประกอบการเรียนและสื่อทางอินเทอร์เน็ต</t>
+  </si>
+  <si>
+    <t>- ไม่ค่อยเข้าใจในการ Sequence Diagram ทำให้ต้องไปศึกษาจากสื่ออื่นๆ และจากเอกสารประกอบการเรียน</t>
   </si>
 </sst>
 </file>
@@ -4111,7 +4123,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4227,22 +4239,32 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="22">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
       <c r="F11" s="22">
         <f t="shared" ref="F11" si="0">D11+E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
@@ -4329,7 +4351,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" activeTab="8"/>
   </bookViews>
@@ -29,12 +34,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="181">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -622,39 +627,42 @@
     <t>System Software Design V0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">- ก่อนการเขียน  State Machine ในระบบที่ตนเองระบผิดชอบนั้น จะมีประชุมและร่วมมือกันคิดว่ามีส่วนไหนที่ต้องเพิ่มเติมรายละเอียดบ้าง จะรวมมือกันทำและช่วยกันแก้ไข
+</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการเขียน State Diagram คร่าวๆ
+- จัดทำ State Machine และ Sequence Diagram ของระบบออกรายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ประชุม State Machine ของแต่ล่ะระบบเพื่อเป็นแนวทางในการทำงาน และช่วยกันแก้ไขเพื่อให้งานออกมาเรียบร้อย</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการพูดคุยแลกเปลี่ยนความคิดในการเขียน State Machine                     - ทำ State Machine และ Sequence Diagram ของระบบจัดการห้องเรียน</t>
+  </si>
+  <si>
+    <t>- หาข้อมูลเพิ่มเติมและศึกษาจากบทเรียนที่เรียนในห้องเพื่อทำการเขียน State Machine และ Sequence Diagram ของระบบ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Sequence Diagram สำหรับระบบจัดการสินค้าคงคลัง
+- แก้ไขปรับปรุง Class Diagram</t>
+  </si>
+  <si>
+    <t>- ปรึกษากับเพื่อนในกลุ่ม ในการเขียน State Machine 
+- ศึกษาวิธีการเขียน Sequence Diagram จากเอกสารประกอบการเรียนและสื่อทางอินเทอร์เน็ต</t>
+  </si>
+  <si>
+    <t>- ไม่ค่อยเข้าใจในการ Sequence Diagram ทำให้ต้องไปศึกษาจากสื่ออื่นๆ และจากเอกสารประกอบการเรียน</t>
+  </si>
+  <si>
+    <t>- การใช้เครื่องมือในการสร้างรูปแบบ Sequence &amp;  Behavioral State Machine ไม่ได้มีการตกลงแน่ชัดว่าจะใข้เป็นแบบไหน เวลาที่ต้องมีการแก้ไขงานของเพื่อนเลยเกิดปัญหาไม่สามารถแก้ไขให้กันได้ ดังนั้นต้องมีการคุยกันเพิ่มเติมเรื่องเครื่องมือที่ใช้</t>
+  </si>
+  <si>
     <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
 - จัดทำ Sequence Diagram ระบบตรวจสอบสิทธิ์เข้าใช้งาน (เพิ่มข้อมูลพนักงานใหม่ และตรวจสอบสิทธิ์เข้าใช้งาน)
 - จัดทำ Behavioral State Machine ระบบตรวจสอบสิทธิ์เข้าใช้งาน 
-- รวบรวมเอกสารออกแบบระบบจากสมาชิกภายในกลุ่ม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ก่อนการเขียน  State Machine ในระบบที่ตนเองระบผิดชอบนั้น จะมีประชุมและร่วมมือกันคิดว่ามีส่วนไหนที่ต้องเพิ่มเติมรายละเอียดบ้าง จะรวมมือกันทำและช่วยกันแก้ไข
-</t>
-  </si>
-  <si>
-    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการเขียน State Diagram คร่าวๆ
-- จัดทำ State Machine และ Sequence Diagram ของระบบออกรายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ประชุม State Machine ของแต่ล่ะระบบเพื่อเป็นแนวทางในการทำงาน และช่วยกันแก้ไขเพื่อให้งานออกมาเรียบร้อย</t>
-  </si>
-  <si>
-    <t>- ประชุมปรึกษาปัญหาจากงานรรอบที่แล้วและมีการพูดคุยแลกเปลี่ยนความคิดในการเขียน State Machine                     - ทำ State Machine และ Sequence Diagram ของระบบจัดการห้องเรียน</t>
-  </si>
-  <si>
-    <t>- หาข้อมูลเพิ่มเติมและศึกษาจากบทเรียนที่เรียนในห้องเพื่อทำการเขียน State Machine และ Sequence Diagram ของระบบ</t>
-  </si>
-  <si>
-    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
-- จัดทำ Sequence Diagram สำหรับระบบจัดการสินค้าคงคลัง
-- แก้ไขปรับปรุง Class Diagram</t>
-  </si>
-  <si>
-    <t>- ปรึกษากับเพื่อนในกลุ่ม ในการเขียน State Machine 
-- ศึกษาวิธีการเขียน Sequence Diagram จากเอกสารประกอบการเรียนและสื่อทางอินเทอร์เน็ต</t>
-  </si>
-  <si>
-    <t>- ไม่ค่อยเข้าใจในการ Sequence Diagram ทำให้ต้องไปศึกษาจากสื่ออื่นๆ และจากเอกสารประกอบการเรียน</t>
+- รวบรวมเอกสารออกแบบระบบจากสมาชิกภายในกลุ่ม             - จัดทำ Presentation Behavioral Modeling</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,7 +1063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3941,7 +3949,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4122,8 +4130,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4247,7 +4255,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="22">
         <v>6</v>
@@ -4260,13 +4268,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4274,22 +4282,24 @@
         <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D12" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="22">
         <f>D12+E12</f>
         <v>9</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="24"/>
+        <v>171</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
@@ -4299,7 +4309,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="22">
         <v>4</v>
@@ -4312,9 +4322,11 @@
         <v>7</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="30"/>
+        <v>173</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
@@ -4324,7 +4336,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="22">
         <v>5</v>
@@ -4337,9 +4349,11 @@
         <v>8</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="30"/>
+        <v>175</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" activeTab="8"/>
+    <workbookView xWindow="390" yWindow="1160" windowWidth="19580" windowHeight="7080" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -34,12 +29,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="184">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -663,6 +658,16 @@
 - จัดทำ Sequence Diagram ระบบตรวจสอบสิทธิ์เข้าใช้งาน (เพิ่มข้อมูลพนักงานใหม่ และตรวจสอบสิทธิ์เข้าใช้งาน)
 - จัดทำ Behavioral State Machine ระบบตรวจสอบสิทธิ์เข้าใช้งาน 
 - รวบรวมเอกสารออกแบบระบบจากสมาชิกภายในกลุ่ม             - จัดทำ Presentation Behavioral Modeling</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- จัดทำ Sequence Diagram สำหรับระบบจัดการสินค้าคงคลัง</t>
+  </si>
+  <si>
+    <t>สืบค้นจากเอกสารอ้างอิง และ ปรึกษาสมาชิกในทีม</t>
+  </si>
+  <si>
+    <t>ทีมใช้เอกสารคนละเวอร์ชันทำให้ต้องมีการแก้ไขอีกครั้ง</t>
   </si>
 </sst>
 </file>
@@ -986,7 +991,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1028,7 +1033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,7 +1068,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1281,18 +1286,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1309,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1323,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1337,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1351,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1379,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1384,7 +1389,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1422,7 +1427,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1472,7 +1477,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1495,7 +1500,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1518,7 +1523,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1541,7 +1546,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
@@ -1556,7 +1561,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1566,7 +1571,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1612,24 +1617,24 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1648,16 +1653,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1711,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1812,7 +1817,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1847,18 +1852,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1870,7 +1875,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1889,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1903,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1917,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1945,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1950,7 +1955,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1988,7 +1993,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2015,7 +2020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2096,7 +2101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2170,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2175,7 +2180,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2224,25 +2229,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2320,7 +2325,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2364,7 +2369,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2408,7 +2413,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2454,7 +2459,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2588,20 +2593,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2618,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2632,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2646,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2655,7 +2660,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2674,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2688,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2693,7 +2698,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2731,7 +2736,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2881,7 +2886,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2933,18 +2938,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2961,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2970,7 +2975,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2984,7 +2989,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2998,7 +3003,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3017,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3036,7 +3041,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3074,7 +3079,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3182,7 +3187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3224,7 +3229,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3234,7 +3239,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3283,25 +3288,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3365,7 +3370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3379,7 +3384,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3460,7 +3465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3487,7 +3492,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3568,25 +3573,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3664,7 +3669,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3745,7 +3750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3853,25 +3858,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3895,7 +3900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3949,7 +3954,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3972,7 +3977,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="239.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -4130,29 +4135,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -4168,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -4184,7 +4189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -4192,7 +4197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -4216,7 +4221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -4230,24 +4235,34 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
       <c r="F10" s="22">
         <f>D10+E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4301,7 +4316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4355,7 +4370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -4365,7 +4380,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40653\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1160" windowWidth="19580" windowHeight="7080" activeTab="8"/>
+    <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -16,11 +21,12 @@
     <sheet name="Week#7" sheetId="10" r:id="rId7"/>
     <sheet name="Week#8" sheetId="11" r:id="rId8"/>
     <sheet name="Week#9" sheetId="12" r:id="rId9"/>
-    <sheet name="Instruction" sheetId="1" r:id="rId10"/>
-    <sheet name="TeamMember" sheetId="7" r:id="rId11"/>
+    <sheet name="Week#10" sheetId="13" r:id="rId10"/>
+    <sheet name="Instruction" sheetId="1" r:id="rId11"/>
+    <sheet name="TeamMember" sheetId="7" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week#1'!$A$1:$H$17</definedName>
@@ -29,12 +35,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="188">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -668,6 +674,22 @@
   </si>
   <si>
     <t>ทีมใช้เอกสารคนละเวอร์ชันทำให้ต้องมีการแก้ไขอีกครั้ง</t>
+  </si>
+  <si>
+    <t>System Software Design V0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ปรึกษากับเพื่อน ๆ ในกลุ่ม ในการเขียนรายละเอียดข้อมูลความต้องการที่ไม่ใช่หน้าที่หลักของระบบ
+</t>
+  </si>
+  <si>
+    <t>- การเขียนเนื้อหายังเป็นภาษาเขียนอยู่ และมีการเขียนภาษาไทยไม่ถูกต้อง จึงได้มีการทวนสอบกับเพื่อนเพื่อป้องกันไม่ให้เกิดความผิดพลาดดังกล่าว</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว เพื่อหาแนวทางในการปรับปรุงงานให้ดีขึ้น มอบหมายงาน และปรึกษาเนื้อหาข้อมูลที่ได้รับหมาย
+- จัดทำรายละเอียดความต้องการที่ไม่ใช่หน้าที่หลักของระบบ (Functional Requirements)
+- ทวนสอบเอกสารรายกงานความก้าวหน้า (Progress Report)
+- รวบรวมเอกสารออกแบบระบบจากสมาชิก</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1013,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1033,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,18 +1308,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1331,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1345,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1359,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1373,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1387,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1401,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1389,7 +1411,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1427,7 +1449,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1477,7 +1499,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1500,7 +1522,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1523,7 +1545,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1546,7 +1568,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
@@ -1561,7 +1583,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1571,7 +1593,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1611,30 +1633,267 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <f>D12+E12</f>
+        <v>9</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="32">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22">
+        <f>SUM(F10:F14)</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
@@ -1653,16 +1912,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1970,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1740,7 +1999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1769,7 +2028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1798,7 +2057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1817,7 +2076,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1852,18 +2111,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +2134,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +2148,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +2162,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +2176,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2190,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +2204,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1955,7 +2214,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1979,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1993,7 +2252,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2020,7 +2279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2047,7 +2306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2074,7 +2333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2101,7 +2360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2128,7 +2387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2155,7 +2414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2170,7 +2429,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2180,7 +2439,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2229,25 +2488,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2287,7 +2546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2325,7 +2584,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2369,7 +2628,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2413,7 +2672,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2459,7 +2718,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2486,7 +2745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2513,7 +2772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2539,7 +2798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2593,20 +2852,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="15"/>
-    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="15"/>
+    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15"/>
+    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2618,7 +2877,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2891,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2646,7 +2905,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2660,7 +2919,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2674,7 +2933,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2947,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2698,7 +2957,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2736,7 +2995,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2763,7 +3022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2790,7 +3049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2817,7 +3076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2844,7 +3103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2871,7 +3130,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2886,7 +3145,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2938,18 +3197,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +3220,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +3234,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +3248,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +3262,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3276,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3290,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3041,7 +3300,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3065,7 +3324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3079,7 +3338,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3106,7 +3365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3133,7 +3392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3160,7 +3419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3187,7 +3446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3214,7 +3473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3229,7 +3488,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3239,7 +3498,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3288,25 +3547,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3314,7 +3573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3322,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3597,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3346,7 +3605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3370,7 +3629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3384,7 +3643,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3411,7 +3670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3438,7 +3697,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3465,7 +3724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3492,7 +3751,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3519,7 +3778,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3573,25 +3832,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3607,7 +3866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3615,7 +3874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3631,7 +3890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3655,7 +3914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3669,7 +3928,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3696,7 +3955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3723,7 +3982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3750,7 +4009,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3777,7 +4036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3804,7 +4063,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3858,25 +4117,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3884,7 +4143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3900,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +4167,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3916,7 +4175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3940,7 +4199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3954,7 +4213,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3977,7 +4236,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -4004,7 +4263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="239.25" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4031,7 +4290,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4058,7 +4317,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4085,7 +4344,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -4135,29 +4394,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -4165,7 +4424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -4173,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -4181,7 +4440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -4189,7 +4448,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -4221,7 +4480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -4235,7 +4494,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4262,7 +4521,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -4289,7 +4548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4316,7 +4575,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4343,7 +4602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4370,7 +4629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40653\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" firstSheet="3" activeTab="9"/>
   </bookViews>
@@ -35,12 +30,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="190">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -676,9 +671,6 @@
     <t>ทีมใช้เอกสารคนละเวอร์ชันทำให้ต้องมีการแก้ไขอีกครั้ง</t>
   </si>
   <si>
-    <t>System Software Design V0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">- ปรึกษากับเพื่อน ๆ ในกลุ่ม ในการเขียนรายละเอียดข้อมูลความต้องการที่ไม่ใช่หน้าที่หลักของระบบ
 </t>
   </si>
@@ -690,6 +682,16 @@
 - จัดทำรายละเอียดความต้องการที่ไม่ใช่หน้าที่หลักของระบบ (Functional Requirements)
 - ทวนสอบเอกสารรายกงานความก้าวหน้า (Progress Report)
 - รวบรวมเอกสารออกแบบระบบจากสมาชิก</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว เพื่อหาแนวทางในการปรับปรุงงานให้ดีขึ้น มอบหมายงาน และปรึกษาเนื้อหาข้อมูลที่ได้รับหมาย
+- จัดทำ Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Nonfunctional and Deployment V0.5</t>
+  </si>
+  <si>
+    <t>- พูดคุยรายละเอียดกับสมาชิก สำหรับการเขียน deployment diagram และศึกษาวิธิการเขียนจากเอกสารประกอบการเรียน และสื่อทางอินเทอร์เน็ต</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,7 +1092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1638,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1681,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -1689,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -1752,18 +1754,28 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>7</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1774,7 +1786,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="22">
         <v>4</v>
@@ -1787,10 +1799,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -1835,7 +1847,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -4113,7 +4125,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4213,7 +4225,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4494,7 +4506,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="65.25" x14ac:dyDescent="0.5">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>3</v>
       </c>

--- a/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
+++ b/Timesheet and MOM/ตารางบันทึกการมีส่วนร่วมของสมาชิกในกลุ่ม6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1155" windowWidth="19575" windowHeight="7080" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="390" yWindow="1160" windowWidth="19580" windowHeight="7080" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="197">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -692,6 +692,27 @@
   </si>
   <si>
     <t>- พูดคุยรายละเอียดกับสมาชิก สำหรับการเขียน deployment diagram และศึกษาวิธิการเขียนจากเอกสารประกอบการเรียน และสื่อทางอินเทอร์เน็ต</t>
+  </si>
+  <si>
+    <t>-ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว เพื่อหาแนวทางในการปรับปรุงให้ดีขึ้น                                                         -แบ่งงาน ได้รับมอบหมายให้แก้ไข State Machine Diagram           -ทวนสอบ และดูภาพรวมของงาน                                            - ประสานงานทั่วไปให้เป็นไปได้อย่างราบรื่น</t>
+  </si>
+  <si>
+    <t>- ประชุมและพูดคุย รวมถึงสอบถามสถานะของงานแต่ละคน</t>
+  </si>
+  <si>
+    <t>ต้องปรับภาษาของสมาชิกให้เป็นภาษาเขียน และต้องมีการพูดคุยหลายครั้งสำหรับงานหนึ่งชิ้น</t>
+  </si>
+  <si>
+    <t>ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว เพื่อหาแนวทางในการปรับปรุงงานให้ดีขึ้น มอบหมายงาน และปรึกษาเนื้อหาข้อมูลที่ได้รับมอบหมาย                                                                 - จัดทำเอกสารความก้าวหน้าของโครงการ</t>
+  </si>
+  <si>
+    <t>ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว เพื่อหาแนวทางในการปรับปรุงงานให้ดีขึ้น มอบหมายงาน และปรึกษาเนื้อหาข้อมูลที่ได้รับมอบหมาย                                                                 - แก้ไข Sequence Diagram</t>
+  </si>
+  <si>
+    <t>-ปรึกษากับเพื่อนในกลุ่ม                        -เรียนรู้เพิ่มเติมจากเอกสาร</t>
+  </si>
+  <si>
+    <t>-ปรึกษากับเพื่อนในกลุ่มและสืบค้นข้อมูลจากอินเตอร์เน็ต</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1036,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1310,18 +1331,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1354,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1368,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1382,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1396,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1410,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1403,7 +1424,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1413,7 +1434,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1451,7 +1472,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1478,7 +1499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1501,7 +1522,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1524,7 +1545,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1547,7 +1568,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1570,7 +1591,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
@@ -1585,7 +1606,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1595,7 +1616,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1641,28 +1662,28 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1740,21 +1761,33 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="C10" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>9</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -1768,17 +1801,17 @@
         <v>3</v>
       </c>
       <c r="E11" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>189</v>
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1805,39 +1838,59 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>8</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="H13" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="22">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22">
+        <v>4</v>
+      </c>
+      <c r="F14" s="22">
+        <v>8</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>195</v>
+      </c>
       <c r="H14" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -1847,7 +1900,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="22">
         <f>SUM(F10:F14)</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -1888,24 +1941,24 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1924,16 +1977,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1982,7 +2035,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2011,7 +2064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2040,7 +2093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2069,7 +2122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2088,7 +2141,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2123,18 +2176,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2199,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2213,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2227,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2241,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2255,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2216,7 +2269,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2226,7 +2279,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2264,7 +2317,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2291,7 +2344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2318,7 +2371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2345,7 +2398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2372,7 +2425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2399,7 +2452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2426,7 +2479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2441,7 +2494,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2451,7 +2504,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2500,25 +2553,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2526,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2534,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2550,7 +2603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -2596,7 +2649,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -2640,7 +2693,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -2684,7 +2737,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -2730,7 +2783,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2757,7 +2810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -2784,7 +2837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2810,7 +2863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
         <v>73</v>
       </c>
@@ -2864,20 +2917,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2889,7 +2942,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2903,7 +2956,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2970,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +2984,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +2998,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2959,7 +3012,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2969,7 +3022,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3007,7 +3060,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3034,7 +3087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3061,7 +3114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3088,7 +3141,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3115,7 +3168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3142,7 +3195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3157,7 +3210,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3209,18 +3262,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +3285,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3299,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3313,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3274,7 +3327,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3288,7 +3341,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3355,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3312,7 +3365,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3336,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3350,7 +3403,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3377,7 +3430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3404,7 +3457,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3431,7 +3484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3458,7 +3511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -3485,7 +3538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3500,7 +3553,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3510,7 +3563,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3559,25 +3612,25 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3585,7 +3638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3593,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +3662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3617,7 +3670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3641,7 +3694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3655,7 +3708,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3682,7 +3735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3709,7 +3762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -3736,7 +3789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -3763,7 +3816,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -3790,7 +3843,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -3844,25 +3897,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3870,7 +3923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3878,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -3886,7 +3939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -3894,7 +3947,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3902,7 +3955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3940,7 +3993,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3967,7 +4020,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -3994,7 +4047,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4021,7 +4074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4048,7 +4101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="152.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4075,7 +4128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -4129,25 +4182,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -4171,7 +4224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -4179,7 +4232,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -4211,7 +4264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -4225,7 +4278,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4248,7 +4301,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -4275,7 +4328,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="239.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4302,7 +4355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4329,7 +4382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4356,7 +4409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
@@ -4410,25 +4463,25 @@
       <selection activeCell="G11" sqref="G10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -4436,7 +4489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -4452,7 +4505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -4460,7 +4513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -4468,7 +4521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
@@ -4492,7 +4545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -4506,7 +4559,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.7">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -4533,7 +4586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.7">
       <c r="A11" s="22">
         <v>2</v>
       </c>
@@ -4560,7 +4613,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.7">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -4587,7 +4640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -4614,7 +4667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.7">
       <c r="A14" s="32">
         <v>5</v>
       </c>
@@ -4641,7 +4694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
